--- a/Turma Maio 2017/Aula 11/Formatos Data - Exercicio.xlsx
+++ b/Turma Maio 2017/Aula 11/Formatos Data - Exercicio.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Maio 2017\Aula 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.rosa\Desktop\TeachX.git\trunk\Turma Maio 2017\Aula 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Cliente</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -152,14 +152,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="[hh]:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[hh]:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -254,11 +254,11 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ênfase1" xfId="3" builtinId="29"/>
@@ -674,11 +674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O366"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18624,14 +18624,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K366"/>
+  <autoFilter ref="A1:K366" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
@@ -18676,7 +18676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
@@ -18703,7 +18703,7 @@
       </c>
       <c r="B2" s="10" t="str">
         <f ca="1">TODAY()-A2&amp;" Dias de Vida!"</f>
-        <v>11160 Dias de Vida!</v>
+        <v>11300 Dias de Vida!</v>
       </c>
     </row>
   </sheetData>
@@ -18712,10 +18712,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8:E12"/>
     </sheetView>
   </sheetViews>
@@ -18732,13 +18732,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -18775,11 +18775,11 @@
       <c r="C8" s="8">
         <v>42907.135416666664</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f t="shared" ref="D8:D9" si="0">C8-B8</f>
         <v>0.26041666666424135</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <f>$B$3*D8*24</f>
         <v>24.999999999767169</v>
       </c>
@@ -18801,11 +18801,11 @@
       <c r="C9" s="8">
         <v>42906.989583333336</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f t="shared" ref="E9:E12" si="1">$B$3*D9*24</f>
         <v>9</v>
       </c>
@@ -18823,17 +18823,17 @@
       <c r="C10" s="8">
         <v>42908.350694444445</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f>C10-B10</f>
         <v>1.1006944444452529</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>105.66666666674428</v>
       </c>
       <c r="G10" s="1">
         <f ca="1">TODAY()</f>
-        <v>42924</v>
+        <v>43064</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -18850,13 +18850,13 @@
         <f>C11-B11</f>
         <v>0.13541666666424135</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <f t="shared" si="1"/>
         <v>12.999999999767169</v>
       </c>
       <c r="G11" s="8">
         <f ca="1">NOW()</f>
-        <v>42924.649633796296</v>
+        <v>43064.59576423611</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -18873,7 +18873,7 @@
         <f>C12-B12</f>
         <v>8.8194444448163267E-2</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f t="shared" si="1"/>
         <v>8.4666666670236737</v>
       </c>
@@ -18909,7 +18909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C5:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
